--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164B7339-3C7A-FF4D-A333-5733B480374A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A3D8BA-7107-134D-A1FF-9C03E656713E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -401,7 +401,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -445,10 +445,12 @@
       </c>
       <c r="B3" s="2">
         <f>SUM(D3:M3)</f>
-        <v>0</v>
+        <v>6.458333333333334E-2</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>6.458333333333334E-2</v>
+      </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A3D8BA-7107-134D-A1FF-9C03E656713E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D54D31A-B80A-4346-912C-C58109916684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Prefix Sums</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Total Time</t>
+  </si>
+  <si>
+    <t>Binary Search on Answer</t>
+  </si>
+  <si>
+    <t>dp</t>
   </si>
 </sst>
 </file>
@@ -401,13 +407,14 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -420,7 +427,12 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
@@ -459,9 +471,14 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(D4:M4)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>9.7916666666666666E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.4583333333333332E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D54D31A-B80A-4346-912C-C58109916684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C384C8D-3618-804E-80BA-336E34EEB3B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Prefix Sums</t>
   </si>
@@ -49,6 +49,21 @@
   </si>
   <si>
     <t>dp</t>
+  </si>
+  <si>
+    <t>data structure building</t>
+  </si>
+  <si>
+    <t>dsu</t>
+  </si>
+  <si>
+    <t>segment tree</t>
+  </si>
+  <si>
+    <t>learn cpp</t>
+  </si>
+  <si>
+    <t>USACO</t>
   </si>
 </sst>
 </file>
@@ -404,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3B2FEE-93DF-4F43-BD0E-A93F4F06DEAE}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -415,9 +430,11 @@
     <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -433,8 +450,23 @@
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>44133</v>
       </c>
@@ -451,7 +483,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>44134</v>
       </c>
@@ -465,13 +497,13 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>44135</v>
       </c>
       <c r="B4" s="2">
         <f>SUM(D4:M4)</f>
-        <v>9.7916666666666666E-2</v>
+        <v>0.12569444444444444</v>
       </c>
       <c r="F4" s="2">
         <v>8.3333333333333329E-2</v>
@@ -479,91 +511,119 @@
       <c r="G4" s="2">
         <v>1.4583333333333332E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I4" s="2">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>44136</v>
       </c>
       <c r="B5" s="2">
         <f>SUM(D5:M5)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4.9305555555555561E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>44137</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" ref="B6:B65" si="0">SUM(D6:M6)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>44138</v>
+      </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>44139</v>
+      </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>44140</v>
+      </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>44141</v>
+      </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>44142</v>
+      </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>44143</v>
+      </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffr\OneDrive\Documents\GitHub\cp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C384C8D-3618-804E-80BA-336E34EEB3B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EEF59C-AC67-42F3-814D-58C41F4B03CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
+    <workbookView xWindow="38595" yWindow="2715" windowWidth="16470" windowHeight="11835" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,12 +99,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,19 +423,19 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="8" max="8" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -466,7 +467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44133</v>
       </c>
@@ -483,7 +484,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>44134</v>
       </c>
@@ -497,7 +498,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>44135</v>
       </c>
@@ -515,7 +516,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44136</v>
       </c>
@@ -530,7 +531,7 @@
         <v>4.8611111111111112E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44137</v>
       </c>
@@ -542,7 +543,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44138</v>
       </c>
@@ -550,9 +551,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>44139</v>
       </c>
@@ -562,17 +563,19 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44140</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44141</v>
       </c>
@@ -582,7 +585,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>44142</v>
       </c>
@@ -592,7 +595,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>44143</v>
       </c>
@@ -602,325 +605,325 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffr\OneDrive\Documents\GitHub\cp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EEF59C-AC67-42F3-814D-58C41F4B03CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9C30FF-BF63-2B48-9B90-26D8F05656F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38595" yWindow="2715" windowWidth="16470" windowHeight="11835" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Prefix Sums</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>USACO</t>
+  </si>
+  <si>
+    <t>greedy</t>
   </si>
 </sst>
 </file>
@@ -420,22 +423,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3B2FEE-93DF-4F43-BD0E-A93F4F06DEAE}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="8" max="8" width="19.625" customWidth="1"/>
-    <col min="10" max="10" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -466,8 +469,11 @@
       <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>44133</v>
       </c>
@@ -484,7 +490,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>44134</v>
       </c>
@@ -498,7 +504,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>44135</v>
       </c>
@@ -516,7 +522,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>44136</v>
       </c>
@@ -531,7 +537,7 @@
         <v>4.8611111111111112E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>44137</v>
       </c>
@@ -543,7 +549,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>44138</v>
       </c>
@@ -553,7 +559,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>44139</v>
       </c>
@@ -563,7 +569,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>44140</v>
       </c>
@@ -575,17 +581,22 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>44141</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.22638888888888889</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="M10" s="5">
+        <v>9.7222222222222224E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>44142</v>
       </c>
@@ -595,7 +606,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>44143</v>
       </c>
@@ -605,325 +616,325 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="2">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9C30FF-BF63-2B48-9B90-26D8F05656F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC7C7EB-52EF-CE46-9875-8295BE7A8919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -602,9 +602,12 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1527777777777781E-2</v>
       </c>
       <c r="F11" s="3"/>
+      <c r="L11" s="5">
+        <v>2.1527777777777781E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
@@ -612,9 +615,12 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="F12" s="3"/>
+      <c r="L12" s="5">
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="2">

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC7C7EB-52EF-CE46-9875-8295BE7A8919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBF881F-51BC-FD46-80FD-1EEAE30C0BB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -623,11 +623,17 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>44144</v>
+      </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1361111111111111</v>
       </c>
       <c r="F13" s="3"/>
+      <c r="L13" s="2">
+        <v>0.1361111111111111</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2">

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffr\OneDrive\Documents\GitHub\cp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBF881F-51BC-FD46-80FD-1EEAE30C0BB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6539E7-F492-4A9D-80ED-316755E0E18C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,19 +426,19 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="8" max="8" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -473,7 +473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44133</v>
       </c>
@@ -490,7 +490,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>44134</v>
       </c>
@@ -504,7 +504,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>44135</v>
       </c>
@@ -522,7 +522,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44136</v>
       </c>
@@ -537,7 +537,7 @@
         <v>4.8611111111111112E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44137</v>
       </c>
@@ -549,7 +549,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44138</v>
       </c>
@@ -559,7 +559,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>44139</v>
       </c>
@@ -569,7 +569,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44140</v>
       </c>
@@ -581,7 +581,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44141</v>
       </c>
@@ -596,7 +596,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>44142</v>
       </c>
@@ -609,7 +609,7 @@
         <v>2.1527777777777781E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>44143</v>
       </c>
@@ -622,7 +622,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>44144</v>
       </c>
@@ -635,324 +635,353 @@
         <v>0.1361111111111111</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44145</v>
+      </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44146</v>
+      </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.361111111111111E-2</v>
       </c>
       <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L15" s="5">
+        <v>2.361111111111111E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffr\OneDrive\Documents\GitHub\cp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6539E7-F492-4A9D-80ED-316755E0E18C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233F3C1C-CD67-4CC2-A298-E597E25E6676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
+    <workbookView xWindow="5130" yWindow="765" windowWidth="16470" windowHeight="11835" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -659,105 +659,117 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44147</v>
+      </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>44148</v>
+      </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>44149</v>
+      </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>44150</v>
+      </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffr\OneDrive\Documents\GitHub\cp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233F3C1C-CD67-4CC2-A298-E597E25E6676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDB8C1C-FEE2-564B-8BFB-F7CAF72EE20B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="765" windowWidth="16470" windowHeight="11835" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Prefix Sums</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>greedy</t>
+  </si>
+  <si>
+    <t>ad hoc</t>
   </si>
 </sst>
 </file>
@@ -423,22 +426,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3B2FEE-93DF-4F43-BD0E-A93F4F06DEAE}">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="8" max="8" width="19.625" customWidth="1"/>
-    <col min="10" max="10" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -472,8 +475,11 @@
       <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>44133</v>
       </c>
@@ -490,7 +496,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>44134</v>
       </c>
@@ -504,7 +510,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>44135</v>
       </c>
@@ -522,7 +528,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>44136</v>
       </c>
@@ -537,19 +543,19 @@
         <v>4.8611111111111112E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>44137</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" ref="B6:B65" si="0">SUM(D6:M6)</f>
+        <f t="shared" ref="B6:B16" si="0">SUM(D6:M6)</f>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="F6" s="2">
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>44138</v>
       </c>
@@ -559,7 +565,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>44139</v>
       </c>
@@ -569,7 +575,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>44140</v>
       </c>
@@ -581,7 +587,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>44141</v>
       </c>
@@ -596,7 +602,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>44142</v>
       </c>
@@ -609,7 +615,7 @@
         <v>2.1527777777777781E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>44143</v>
       </c>
@@ -622,7 +628,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>44144</v>
       </c>
@@ -635,7 +641,7 @@
         <v>0.1361111111111111</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>44145</v>
       </c>
@@ -645,7 +651,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>44146</v>
       </c>
@@ -658,7 +664,7 @@
         <v>2.361111111111111E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>44147</v>
       </c>
@@ -668,310 +674,286 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>44148</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(D17:M17)</f>
         <v>0</v>
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>44149</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(D18:M18)</f>
         <v>0</v>
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>44150</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <f>SUM(D19:N19)</f>
+        <v>8.1944444444444459E-2</v>
+      </c>
+      <c r="M19" s="5">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="N19" s="5">
+        <v>3.888888888888889E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>44151</v>
+      </c>
       <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <f>SUM(D20:N20)</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="M20" s="5">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <f>SUM(D21:N21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <f>SUM(D22:N22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="B23:B53" si="1">SUM(D23:N23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDB8C1C-FEE2-564B-8BFB-F7CAF72EE20B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1017BE4B-A5A1-1D4D-B5CC-AA42B07CC5DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Prefix Sums</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>ad hoc</t>
+  </si>
+  <si>
+    <t>ordered sets</t>
   </si>
 </sst>
 </file>
@@ -426,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3B2FEE-93DF-4F43-BD0E-A93F4F06DEAE}">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,7 +444,7 @@
     <col min="10" max="10" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -478,8 +481,11 @@
       <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>44133</v>
       </c>
@@ -496,7 +502,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>44134</v>
       </c>
@@ -510,7 +516,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>44135</v>
       </c>
@@ -528,7 +534,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>44136</v>
       </c>
@@ -543,7 +549,7 @@
         <v>4.8611111111111112E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>44137</v>
       </c>
@@ -555,7 +561,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>44138</v>
       </c>
@@ -565,7 +571,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>44139</v>
       </c>
@@ -575,7 +581,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>44140</v>
       </c>
@@ -587,7 +593,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>44141</v>
       </c>
@@ -602,7 +608,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>44142</v>
       </c>
@@ -615,7 +621,7 @@
         <v>2.1527777777777781E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>44143</v>
       </c>
@@ -628,7 +634,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>44144</v>
       </c>
@@ -641,7 +647,7 @@
         <v>0.1361111111111111</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>44145</v>
       </c>
@@ -651,7 +657,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>44146</v>
       </c>
@@ -664,7 +670,7 @@
         <v>2.361111111111111E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>44147</v>
       </c>
@@ -674,7 +680,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>44148</v>
       </c>
@@ -684,7 +690,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>44149</v>
       </c>
@@ -694,7 +700,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>44150</v>
       </c>
@@ -709,7 +715,7 @@
         <v>3.888888888888889E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>44151</v>
       </c>
@@ -721,73 +727,91 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>44152</v>
+      </c>
       <c r="B21" s="2">
         <f>SUM(D21:N21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <v>7.2222222222222229E-2</v>
+      </c>
+      <c r="M21" s="5">
+        <v>7.2222222222222229E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>44153</v>
+      </c>
       <c r="B22" s="2">
-        <f>SUM(D22:N22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ref="B22:B55" si="1">SUM(D22:O22)</f>
+        <v>0.17430555555555557</v>
+      </c>
+      <c r="L22" s="5">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="M22" s="5">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="O22" s="5">
+        <v>5.1388888888888894E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
-        <f t="shared" ref="B23:B53" si="1">SUM(D23:N23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -920,10 +944,16 @@
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="2"/>
+      <c r="B54" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="2"/>
+      <c r="B55" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1017BE4B-A5A1-1D4D-B5CC-AA42B07CC5DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B4D3B8-8F36-8B41-903D-1707E39809BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Prefix Sums</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>ordered sets</t>
+  </si>
+  <si>
+    <t>dfs</t>
   </si>
 </sst>
 </file>
@@ -429,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3B2FEE-93DF-4F43-BD0E-A93F4F06DEAE}">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -444,7 +447,7 @@
     <col min="10" max="10" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -484,8 +487,11 @@
       <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>44133</v>
       </c>
@@ -502,7 +508,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>44134</v>
       </c>
@@ -516,7 +522,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>44135</v>
       </c>
@@ -534,7 +540,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>44136</v>
       </c>
@@ -549,7 +555,7 @@
         <v>4.8611111111111112E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>44137</v>
       </c>
@@ -561,7 +567,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>44138</v>
       </c>
@@ -571,7 +577,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>44139</v>
       </c>
@@ -581,7 +587,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>44140</v>
       </c>
@@ -593,7 +599,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>44141</v>
       </c>
@@ -608,7 +614,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>44142</v>
       </c>
@@ -621,7 +627,7 @@
         <v>2.1527777777777781E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>44143</v>
       </c>
@@ -634,7 +640,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>44144</v>
       </c>
@@ -647,7 +653,7 @@
         <v>0.1361111111111111</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>44145</v>
       </c>
@@ -657,7 +663,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>44146</v>
       </c>
@@ -670,7 +676,7 @@
         <v>2.361111111111111E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>44147</v>
       </c>
@@ -680,7 +686,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>44148</v>
       </c>
@@ -690,7 +696,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>44149</v>
       </c>
@@ -700,7 +706,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>44150</v>
       </c>
@@ -715,7 +721,7 @@
         <v>3.888888888888889E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>44151</v>
       </c>
@@ -727,7 +733,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>44152</v>
       </c>
@@ -739,7 +745,7 @@
         <v>7.2222222222222229E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>44153</v>
       </c>
@@ -757,206 +763,215 @@
         <v>5.1388888888888894E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>44154</v>
+      </c>
       <c r="B23" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="B23:B35" si="2">SUM(D23:P23)</f>
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="P23" s="5">
+        <v>5.6250000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+        <f>SUM(D24:P24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="B25:B35" si="3">SUM(D25:P25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B25:B56" si="4">SUM(D36:P36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="2"/>
+      <c r="B56" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B4D3B8-8F36-8B41-903D-1707E39809BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA5F50F-2C10-7448-8AD0-F35032DBC20D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -750,7 +750,7 @@
         <v>44153</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" ref="B22:B55" si="1">SUM(D22:O22)</f>
+        <f t="shared" ref="B22" si="1">SUM(D22:O22)</f>
         <v>0.17430555555555557</v>
       </c>
       <c r="L22" s="5">
@@ -768,7 +768,7 @@
         <v>44154</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" ref="B23:B35" si="2">SUM(D23:P23)</f>
+        <f t="shared" ref="B23" si="2">SUM(D23:P23)</f>
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="P23" s="5">
@@ -776,15 +776,30 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>44155</v>
+      </c>
       <c r="B24" s="2">
         <f>SUM(D24:P24)</f>
-        <v>0</v>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2.2222222222222223E-2</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>44156</v>
+      </c>
       <c r="B25" s="2">
         <f t="shared" ref="B25:B35" si="3">SUM(D25:P25)</f>
-        <v>0</v>
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="L25" s="5">
+        <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -849,7 +864,7 @@
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
-        <f t="shared" ref="B25:B56" si="4">SUM(D36:P36)</f>
+        <f t="shared" ref="B36:B56" si="4">SUM(D36:P36)</f>
         <v>0</v>
       </c>
     </row>

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA5F50F-2C10-7448-8AD0-F35032DBC20D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29819C3C-6920-0347-A1DA-379A250DBE78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,7 +751,10 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ref="B22" si="1">SUM(D22:O22)</f>
-        <v>0.17430555555555557</v>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="I22" s="2">
+        <v>4.2361111111111106E-2</v>
       </c>
       <c r="L22" s="5">
         <v>8.9583333333333334E-2</v>
@@ -803,21 +806,33 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>44157</v>
+      </c>
       <c r="B26" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>44158</v>
+      </c>
       <c r="B27" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>44159</v>
+      </c>
       <c r="B28" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="L28" s="5">
+        <v>2.013888888888889E-2</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29819C3C-6920-0347-A1DA-379A250DBE78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF311BEC-2F06-344D-A4F0-08C891F84A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,10 +829,13 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="3"/>
-        <v>2.013888888888889E-2</v>
+        <v>0.15416666666666667</v>
+      </c>
+      <c r="H28" s="5">
+        <v>5.0694444444444452E-2</v>
       </c>
       <c r="L28" s="5">
-        <v>2.013888888888889E-2</v>
+        <v>0.10347222222222223</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF311BEC-2F06-344D-A4F0-08C891F84A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14C1FD3-3C12-A641-972E-7DCD143239C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,10 +829,10 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="3"/>
-        <v>0.15416666666666667</v>
+        <v>0.17152777777777778</v>
       </c>
       <c r="H28" s="5">
-        <v>5.0694444444444452E-2</v>
+        <v>6.805555555555555E-2</v>
       </c>
       <c r="L28" s="5">
         <v>0.10347222222222223</v>

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14C1FD3-3C12-A641-972E-7DCD143239C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AFB90E-8F56-2349-8559-A3C9546C494B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,13 +829,16 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="3"/>
-        <v>0.17152777777777778</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="H28" s="5">
         <v>6.805555555555555E-2</v>
       </c>
       <c r="L28" s="5">
         <v>0.10347222222222223</v>
+      </c>
+      <c r="P28" s="5">
+        <v>6.5972222222222224E-2</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AFB90E-8F56-2349-8559-A3C9546C494B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7DC2F2-58D7-154F-8B18-189EE62EE9C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -842,9 +842,15 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>44160</v>
+      </c>
       <c r="B29" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="K29" s="5">
+        <v>3.9583333333333331E-2</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7DC2F2-58D7-154F-8B18-189EE62EE9C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B522EB-DC54-EC45-A41E-314ABD6D5A33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -847,7 +847,10 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="3"/>
-        <v>3.9583333333333331E-2</v>
+        <v>6.041666666666666E-2</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="K29" s="5">
         <v>3.9583333333333331E-2</v>

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B522EB-DC54-EC45-A41E-314ABD6D5A33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212D35B8-2D3F-124E-8B77-B4CEEFD2FAAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,9 +857,15 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>44161</v>
+      </c>
       <c r="B30" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5.7638888888888885E-2</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212D35B8-2D3F-124E-8B77-B4CEEFD2FAAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428B0DBE-89C4-E84C-8C4B-6B738F3DC060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Prefix Sums</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>dfs</t>
+  </si>
+  <si>
+    <t>cf</t>
   </si>
 </sst>
 </file>
@@ -432,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3B2FEE-93DF-4F43-BD0E-A93F4F06DEAE}">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,7 +450,7 @@
     <col min="10" max="10" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -490,8 +493,11 @@
       <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>44133</v>
       </c>
@@ -508,7 +514,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>44134</v>
       </c>
@@ -522,7 +528,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>44135</v>
       </c>
@@ -540,7 +546,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>44136</v>
       </c>
@@ -555,7 +561,7 @@
         <v>4.8611111111111112E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>44137</v>
       </c>
@@ -567,7 +573,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>44138</v>
       </c>
@@ -577,7 +583,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>44139</v>
       </c>
@@ -587,7 +593,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>44140</v>
       </c>
@@ -599,7 +605,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>44141</v>
       </c>
@@ -614,7 +620,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>44142</v>
       </c>
@@ -627,7 +633,7 @@
         <v>2.1527777777777781E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>44143</v>
       </c>
@@ -640,7 +646,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>44144</v>
       </c>
@@ -653,7 +659,7 @@
         <v>0.1361111111111111</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>44145</v>
       </c>
@@ -663,7 +669,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>44146</v>
       </c>
@@ -676,7 +682,7 @@
         <v>2.361111111111111E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>44147</v>
       </c>
@@ -869,158 +875,182 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>44162</v>
+      </c>
       <c r="B31" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="E31" s="5">
+        <v>4.9999999999999996E-2</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>44163</v>
+      </c>
       <c r="B32" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+        <f t="shared" ref="B32:B56" si="4">SUM(D32:Q32)</f>
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="L32" s="2">
+        <v>6.1111111111111116E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>44164</v>
+      </c>
       <c r="B33" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+        <f>SUM(D33:Q33)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>44165</v>
+      </c>
       <c r="B34" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+        <f t="shared" ref="B34:B56" si="5">SUM(D34:Q34)</f>
+        <v>8.5416666666666655E-2</v>
+      </c>
+      <c r="L34" s="2">
+        <v>8.5416666666666655E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B56" si="4">SUM(D36:P36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428B0DBE-89C4-E84C-8C4B-6B738F3DC060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D15BEB-B367-5B48-A8D6-50021B7D76ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Prefix Sums</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>cf</t>
+  </si>
+  <si>
+    <t>code wars</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3B2FEE-93DF-4F43-BD0E-A93F4F06DEAE}">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,7 +453,7 @@
     <col min="10" max="10" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -496,8 +499,11 @@
       <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>44133</v>
       </c>
@@ -514,7 +520,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>44134</v>
       </c>
@@ -528,7 +534,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>44135</v>
       </c>
@@ -546,7 +552,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>44136</v>
       </c>
@@ -561,7 +567,7 @@
         <v>4.8611111111111112E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>44137</v>
       </c>
@@ -573,7 +579,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>44138</v>
       </c>
@@ -583,7 +589,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>44139</v>
       </c>
@@ -593,7 +599,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>44140</v>
       </c>
@@ -605,7 +611,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>44141</v>
       </c>
@@ -620,7 +626,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>44142</v>
       </c>
@@ -633,7 +639,7 @@
         <v>2.1527777777777781E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>44143</v>
       </c>
@@ -646,7 +652,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>44144</v>
       </c>
@@ -659,7 +665,7 @@
         <v>0.1361111111111111</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>44145</v>
       </c>
@@ -669,7 +675,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>44146</v>
       </c>
@@ -682,7 +688,7 @@
         <v>2.361111111111111E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>44147</v>
       </c>
@@ -801,7 +807,7 @@
         <v>44156</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" ref="B25:B35" si="3">SUM(D25:P25)</f>
+        <f t="shared" ref="B25:B31" si="3">SUM(D25:P25)</f>
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="D25" s="5">
@@ -891,14 +897,14 @@
         <v>44163</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" ref="B32:B56" si="4">SUM(D32:Q32)</f>
+        <f t="shared" ref="B32" si="4">SUM(D32:Q32)</f>
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="L32" s="2">
         <v>6.1111111111111116E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>44164</v>
       </c>
@@ -910,97 +916,100 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>44165</v>
       </c>
       <c r="B34" s="2">
-        <f t="shared" ref="B34:B56" si="5">SUM(D34:Q34)</f>
-        <v>8.5416666666666655E-2</v>
+        <f>SUM(D34:R34)</f>
+        <v>0.24930555555555559</v>
       </c>
       <c r="L34" s="2">
-        <v>8.5416666666666655E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.20416666666666669</v>
+      </c>
+      <c r="R34" s="2">
+        <v>4.5138888888888888E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" ref="B35:B56" si="5">SUM(D35:R35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B48" s="2">
         <f t="shared" si="5"/>
         <v>0</v>

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D15BEB-B367-5B48-A8D6-50021B7D76ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29F0F73-C7D4-8F46-AE16-67509DD37102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3B2FEE-93DF-4F43-BD0E-A93F4F06DEAE}">
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -922,7 +922,10 @@
       </c>
       <c r="B34" s="2">
         <f>SUM(D34:R34)</f>
-        <v>0.24930555555555559</v>
+        <v>0.34305555555555561</v>
+      </c>
+      <c r="G34" s="2">
+        <v>9.375E-2</v>
       </c>
       <c r="L34" s="2">
         <v>0.20416666666666669</v>

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29F0F73-C7D4-8F46-AE16-67509DD37102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E6EAAD-D65C-AE4B-B137-E710489DCF39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Prefix Sums</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>code wars</t>
+  </si>
+  <si>
+    <t>aoc</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3B2FEE-93DF-4F43-BD0E-A93F4F06DEAE}">
-  <dimension ref="A1:R65"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,7 +456,7 @@
     <col min="10" max="10" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -502,8 +505,11 @@
       <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>44133</v>
       </c>
@@ -520,7 +526,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>44134</v>
       </c>
@@ -534,7 +540,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>44135</v>
       </c>
@@ -552,7 +558,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>44136</v>
       </c>
@@ -567,7 +573,7 @@
         <v>4.8611111111111112E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>44137</v>
       </c>
@@ -579,7 +585,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>44138</v>
       </c>
@@ -589,7 +595,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>44139</v>
       </c>
@@ -599,7 +605,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>44140</v>
       </c>
@@ -611,7 +617,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>44141</v>
       </c>
@@ -626,7 +632,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>44142</v>
       </c>
@@ -639,7 +645,7 @@
         <v>2.1527777777777781E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>44143</v>
       </c>
@@ -652,7 +658,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>44144</v>
       </c>
@@ -665,7 +671,7 @@
         <v>0.1361111111111111</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>44145</v>
       </c>
@@ -675,7 +681,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>44146</v>
       </c>
@@ -688,7 +694,7 @@
         <v>2.361111111111111E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>44147</v>
       </c>
@@ -904,7 +910,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>44164</v>
       </c>
@@ -916,7 +922,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>44165</v>
       </c>
@@ -934,85 +940,97 @@
         <v>4.5138888888888888E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>44166</v>
+      </c>
       <c r="B35" s="2">
-        <f t="shared" ref="B35:B56" si="5">SUM(D35:R35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+        <f>SUM(D35:S35)</f>
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="L35" s="2">
+        <v>7.5694444444444439E-2</v>
+      </c>
+      <c r="S35" s="5">
+        <v>4.9999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" ref="B36:B59" si="5">SUM(D36:S36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B48" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -1067,13 +1085,22 @@
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="2"/>
+      <c r="B57" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="2"/>
+      <c r="B58" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="2"/>
+      <c r="B59" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E6EAAD-D65C-AE4B-B137-E710489DCF39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3962EE02-9902-0449-B94B-508880C07396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3B2FEE-93DF-4F43-BD0E-A93F4F06DEAE}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -946,22 +946,30 @@
       </c>
       <c r="B35" s="2">
         <f>SUM(D35:S35)</f>
-        <v>0.14791666666666667</v>
-      </c>
-      <c r="G35" s="5">
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="L35" s="2">
-        <v>7.5694444444444439E-2</v>
-      </c>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="L35" s="2"/>
       <c r="S35" s="5">
         <v>4.9999999999999996E-2</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>44167</v>
+      </c>
       <c r="B36" s="2">
         <f t="shared" ref="B36:B59" si="5">SUM(D36:S36)</f>
-        <v>0</v>
+        <v>0.10277777777777777</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="L36" s="2">
+        <v>7.5694444444444439E-2</v>
+      </c>
+      <c r="S36" s="2">
+        <v>4.8611111111111112E-3</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3962EE02-9902-0449-B94B-508880C07396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0B75BC-81D7-1645-8244-87774D557FAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -443,8 +443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3B2FEE-93DF-4F43-BD0E-A93F4F06DEAE}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -973,9 +974,15 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>44168</v>
+      </c>
       <c r="B37" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>7.9861111111111105E-2</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0B75BC-81D7-1645-8244-87774D557FAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128AF1DD-17E0-E64D-B770-C7C0E07B4F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -444,8 +444,8 @@
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -979,28 +979,49 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" si="5"/>
-        <v>7.9861111111111105E-2</v>
+        <v>0.11736111111111111</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="Q37" s="2">
         <v>7.9861111111111105E-2</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>44169</v>
+      </c>
       <c r="B38" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0.11319444444444444</v>
+      </c>
+      <c r="S38" s="2">
+        <v>2.5694444444444447E-2</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>44140</v>
+      </c>
       <c r="B39" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>44141</v>
+      </c>
       <c r="B40" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="S40" s="2">
+        <v>1.3194444444444444E-2</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128AF1DD-17E0-E64D-B770-C7C0E07B4F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F459AC-0F64-7143-B3BF-C4FCBB41881F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -444,8 +444,8 @@
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1018,13 +1018,19 @@
       </c>
       <c r="B40" s="2">
         <f t="shared" si="5"/>
-        <v>1.3194444444444444E-2</v>
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="L40" s="2">
+        <v>5.7638888888888885E-2</v>
       </c>
       <c r="S40" s="2">
         <v>1.3194444444444444E-2</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>44142</v>
+      </c>
       <c r="B41" s="2">
         <f t="shared" si="5"/>
         <v>0</v>

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F459AC-0F64-7143-B3BF-C4FCBB41881F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD160BB-6331-7948-8A94-22D1CD15083F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R41" sqref="R41"/>
+      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1018,10 +1018,10 @@
       </c>
       <c r="B40" s="2">
         <f t="shared" si="5"/>
-        <v>7.0833333333333331E-2</v>
+        <v>0.13680555555555557</v>
       </c>
       <c r="L40" s="2">
-        <v>5.7638888888888885E-2</v>
+        <v>0.12361111111111112</v>
       </c>
       <c r="S40" s="2">
         <v>1.3194444444444444E-2</v>

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD160BB-6331-7948-8A94-22D1CD15083F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4A1DCE-7430-0249-84B9-CFE289A09158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
+      <selection pane="bottomLeft" activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1033,7 +1033,10 @@
       </c>
       <c r="B41" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="S41" s="2">
+        <v>3.2638888888888891E-2</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4A1DCE-7430-0249-84B9-CFE289A09158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26001EC-B63D-3D4A-BCD4-FF93E41862E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -444,8 +444,8 @@
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R41" sqref="R41"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1040,9 +1040,15 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>44143</v>
+      </c>
       <c r="B42" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="S42" s="2">
+        <v>9.7222222222222224E-3</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">

--- a/PracticeTimes.xlsx
+++ b/PracticeTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/GitHub/cp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26001EC-B63D-3D4A-BCD4-FF93E41862E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764299CC-759D-A845-AABE-13A21E32BE32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A4C063FD-244B-064F-8AA9-EE187B6E03B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Prefix Sums</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>aoc</t>
+  </si>
+  <si>
+    <t>flood fill</t>
   </si>
 </sst>
 </file>
@@ -441,11 +444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3B2FEE-93DF-4F43-BD0E-A93F4F06DEAE}">
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q42" sqref="Q42"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -457,7 +460,7 @@
     <col min="10" max="10" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -509,8 +512,11 @@
       <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>44133</v>
       </c>
@@ -527,7 +533,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>44134</v>
       </c>
@@ -541,7 +547,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>44135</v>
       </c>
@@ -559,7 +565,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>44136</v>
       </c>
@@ -574,7 +580,7 @@
         <v>4.8611111111111112E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>44137</v>
       </c>
@@ -586,7 +592,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>44138</v>
       </c>
@@ -596,7 +602,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>44139</v>
       </c>
@@ -606,7 +612,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>44140</v>
       </c>
@@ -618,7 +624,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>44141</v>
       </c>
@@ -633,7 +639,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>44142</v>
       </c>
@@ -646,7 +652,7 @@
         <v>2.1527777777777781E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>44143</v>
       </c>
@@ -659,7 +665,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>44144</v>
       </c>
@@ -672,7 +678,7 @@
         <v>0.1361111111111111</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>44145</v>
       </c>
@@ -682,7 +688,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>44146</v>
       </c>
@@ -695,7 +701,7 @@
         <v>2.361111111111111E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>44147</v>
       </c>
@@ -911,7 +917,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>44164</v>
       </c>
@@ -923,7 +929,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>44165</v>
       </c>
@@ -941,7 +947,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>44166</v>
       </c>
@@ -955,12 +961,12 @@
         <v>4.9999999999999996E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>44167</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B59" si="5">SUM(D36:S36)</f>
+        <f t="shared" ref="B36:B41" si="5">SUM(D36:S36)</f>
         <v>0.10277777777777777</v>
       </c>
       <c r="G36" s="2">
@@ -973,7 +979,7 @@
         <v>4.8611111111111112E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>44168</v>
       </c>
@@ -988,7 +994,7 @@
         <v>7.9861111111111105E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>44169</v>
       </c>
@@ -1003,7 +1009,7 @@
         <v>2.5694444444444447E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>44140</v>
       </c>
@@ -1012,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>44141</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>1.3194444444444444E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>44142</v>
       </c>
@@ -1039,125 +1045,141 @@
         <v>3.2638888888888891E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>44143</v>
       </c>
       <c r="B42" s="2">
-        <f t="shared" si="5"/>
-        <v>9.7222222222222224E-3</v>
+        <f>SUM(D42:T42)</f>
+        <v>6.25E-2</v>
       </c>
       <c r="S42" s="2">
         <v>9.7222222222222224E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="2">
+        <v>5.2777777777777778E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>44144</v>
+      </c>
       <c r="B43" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+        <f t="shared" ref="B43:B61" si="6">SUM(D43:T43)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="S43" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B48" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="2"/>
+      <c r="B60" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="2"/>
+      <c r="B61" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
